--- a/AvantisChannelList.xlsx
+++ b/AvantisChannelList.xlsx
@@ -2184,9 +2184,9 @@
   <dimension ref="A1:CF131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>

--- a/AvantisChannelList.xlsx
+++ b/AvantisChannelList.xlsx
@@ -23,8 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">*) Only for CSV Director Import</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="423">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -35,19 +59,19 @@
     <t xml:space="preserve">Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom</t>
+    <t xml:space="preserve">Source*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pad*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom*</t>
   </si>
   <si>
     <t xml:space="preserve">Mute</t>
@@ -503,6 +527,24 @@
     <t xml:space="preserve">FX Return Color</t>
   </si>
   <si>
+    <t xml:space="preserve">UFX Send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drums</t>
   </si>
   <si>
@@ -533,6 +575,12 @@
     <t xml:space="preserve">FxRet1</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perc</t>
   </si>
   <si>
@@ -563,6 +611,12 @@
     <t xml:space="preserve">FxRet2</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bass</t>
   </si>
   <si>
@@ -593,6 +647,12 @@
     <t xml:space="preserve">FxRet3</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Egit</t>
   </si>
   <si>
@@ -623,6 +683,12 @@
     <t xml:space="preserve">FxRet4</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Accu</t>
   </si>
   <si>
@@ -653,6 +719,12 @@
     <t xml:space="preserve">FxRet5</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keys</t>
   </si>
   <si>
@@ -683,6 +755,12 @@
     <t xml:space="preserve">FxRet6</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lead</t>
   </si>
   <si>
@@ -713,6 +791,12 @@
     <t xml:space="preserve">FxRet7</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet7</t>
+  </si>
+  <si>
     <t xml:space="preserve">BV</t>
   </si>
   <si>
@@ -743,6 +827,12 @@
     <t xml:space="preserve">FxRet8</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet8</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX</t>
   </si>
   <si>
@@ -884,15 +974,6 @@
     <t xml:space="preserve">StMtx13</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca14</t>
   </si>
   <si>
@@ -914,15 +995,6 @@
     <t xml:space="preserve">StMtx14</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca15</t>
   </si>
   <si>
@@ -944,15 +1016,6 @@
     <t xml:space="preserve">StMtx15</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca16</t>
   </si>
   <si>
@@ -974,18 +1037,6 @@
     <t xml:space="preserve">StMtx16</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux17</t>
   </si>
   <si>
@@ -1004,9 +1055,6 @@
     <t xml:space="preserve">StMtx17</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux18</t>
   </si>
   <si>
@@ -1025,9 +1073,6 @@
     <t xml:space="preserve">StMtx18</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux19</t>
   </si>
   <si>
@@ -1046,9 +1091,6 @@
     <t xml:space="preserve">StMtx19</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux20</t>
   </si>
   <si>
@@ -1067,216 +1109,105 @@
     <t xml:space="preserve">StMtx20</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux21</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp21</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx21</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux22</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp22</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx22</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux23</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp23</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx23</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux24</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp24</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx24</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux25</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp25</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx25</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux26</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp26</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx26</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux27</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp27</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx27</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux28</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp28</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx28</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux29</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp29</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx29</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux30</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp30</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx30</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux31</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp31</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx31</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux32</t>
   </si>
   <si>
@@ -1356,204 +1287,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mtx40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx62</t>
   </si>
   <si>
     <t xml:space="preserve">Mono</t>
@@ -2184,9 +1917,9 @@
   <dimension ref="A1:CF131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
@@ -2324,35 +2057,35 @@
       </c>
       <c r="AH1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA17 - ",Groups!B18)</f>
-        <v>DCA17 - Dca17</v>
+        <v>DCA17 -</v>
       </c>
       <c r="AI1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA18 - ",Groups!B19)</f>
-        <v>DCA18 - Dca18</v>
+        <v>DCA18 -</v>
       </c>
       <c r="AJ1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA19 - ",Groups!B20)</f>
-        <v>DCA19 - Dca19</v>
+        <v>DCA19 -</v>
       </c>
       <c r="AK1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA20 - ",Groups!B21)</f>
-        <v>DCA20 - Dca20</v>
+        <v>DCA20 -</v>
       </c>
       <c r="AL1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA21 - ",Groups!B22)</f>
-        <v>DCA21 - Dca21</v>
+        <v>DCA21 -</v>
       </c>
       <c r="AM1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA22 - ",Groups!B23)</f>
-        <v>DCA22 - Dca22</v>
+        <v>DCA22 -</v>
       </c>
       <c r="AN1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA23 - ",Groups!B24)</f>
-        <v>DCA23 - Dca23</v>
+        <v>DCA23 -</v>
       </c>
       <c r="AO1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA24 - ",Groups!B25)</f>
-        <v>DCA24 - Dca24</v>
+        <v>DCA24 -</v>
       </c>
       <c r="AQ1" s="9" t="s">
         <v>15</v>
@@ -18983,6 +18716,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18998,7 +18732,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22054,7 +21788,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AU65"/>
+  <dimension ref="A1:BC65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22096,6 +21830,11 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="43" min="43" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="3" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="50" min="49" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="51" min="51" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="53" min="52" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="54" min="54" style="3" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="55" min="55" style="3" width="17.7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22202,13 +21941,31 @@
       <c r="AU1" s="25" t="s">
         <v>157</v>
       </c>
+      <c r="AW1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB1" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC1" s="25" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>49</v>
@@ -22217,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>84</v>
@@ -22230,7 +21987,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>84</v>
@@ -22244,7 +22001,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>49</v>
@@ -22258,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>49</v>
@@ -22271,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AA2" s="28" t="s">
         <v>102</v>
@@ -22285,7 +22042,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="29" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AF2" s="28" t="s">
         <v>102</v>
@@ -22298,7 +22055,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AK2" s="28" t="s">
         <v>84</v>
@@ -22312,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="29" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AP2" s="28" t="s">
         <v>84</v>
@@ -22326,10 +22083,29 @@
         <v>1</v>
       </c>
       <c r="AT2" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AU2" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22337,7 +22113,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>49</v>
@@ -22346,7 +22122,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>84</v>
@@ -22359,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L3" s="28" t="s">
         <v>84</v>
@@ -22373,7 +22149,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="28" t="s">
         <v>49</v>
@@ -22387,7 +22163,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>49</v>
@@ -22400,7 +22176,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AA3" s="28" t="s">
         <v>102</v>
@@ -22414,7 +22190,7 @@
         <v>2</v>
       </c>
       <c r="AE3" s="29" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AF3" s="28" t="s">
         <v>102</v>
@@ -22427,7 +22203,7 @@
         <v>2</v>
       </c>
       <c r="AJ3" s="29" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AK3" s="28" t="s">
         <v>84</v>
@@ -22441,7 +22217,7 @@
         <v>2</v>
       </c>
       <c r="AO3" s="29" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AP3" s="28" t="s">
         <v>84</v>
@@ -22455,10 +22231,29 @@
         <v>2</v>
       </c>
       <c r="AT3" s="29" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AU3" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC3" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22466,7 +22261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>69</v>
@@ -22475,7 +22270,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>84</v>
@@ -22488,7 +22283,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L4" s="28" t="s">
         <v>84</v>
@@ -22502,7 +22297,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="28" t="s">
         <v>49</v>
@@ -22516,7 +22311,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="V4" s="28" t="s">
         <v>49</v>
@@ -22529,7 +22324,7 @@
         <v>3</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AA4" s="28" t="s">
         <v>102</v>
@@ -22543,7 +22338,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF4" s="28" t="s">
         <v>102</v>
@@ -22556,7 +22351,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="29" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AK4" s="28" t="s">
         <v>84</v>
@@ -22570,7 +22365,7 @@
         <v>3</v>
       </c>
       <c r="AO4" s="29" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AP4" s="28" t="s">
         <v>84</v>
@@ -22584,10 +22379,29 @@
         <v>3</v>
       </c>
       <c r="AT4" s="29" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AU4" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC4" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22595,7 +22409,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>72</v>
@@ -22604,7 +22418,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>84</v>
@@ -22617,7 +22431,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L5" s="28" t="s">
         <v>84</v>
@@ -22631,7 +22445,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="28" t="s">
         <v>49</v>
@@ -22645,7 +22459,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="V5" s="28" t="s">
         <v>49</v>
@@ -22658,7 +22472,7 @@
         <v>4</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AA5" s="28" t="s">
         <v>102</v>
@@ -22672,7 +22486,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="29" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AF5" s="28" t="s">
         <v>102</v>
@@ -22685,7 +22499,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="29" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AK5" s="28" t="s">
         <v>84</v>
@@ -22699,7 +22513,7 @@
         <v>4</v>
       </c>
       <c r="AO5" s="29" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AP5" s="28" t="s">
         <v>84</v>
@@ -22713,9 +22527,28 @@
         <v>4</v>
       </c>
       <c r="AT5" s="29" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AU5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC5" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -22724,7 +22557,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>79</v>
@@ -22733,7 +22566,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>84</v>
@@ -22746,7 +22579,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L6" s="28" t="s">
         <v>84</v>
@@ -22760,7 +22593,7 @@
         <v>5</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="28" t="s">
         <v>49</v>
@@ -22774,7 +22607,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="V6" s="28" t="s">
         <v>49</v>
@@ -22787,7 +22620,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="29" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AA6" s="28" t="s">
         <v>102</v>
@@ -22801,7 +22634,7 @@
         <v>5</v>
       </c>
       <c r="AE6" s="29" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AF6" s="28" t="s">
         <v>102</v>
@@ -22814,7 +22647,7 @@
         <v>5</v>
       </c>
       <c r="AJ6" s="29" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AK6" s="28" t="s">
         <v>84</v>
@@ -22828,7 +22661,7 @@
         <v>5</v>
       </c>
       <c r="AO6" s="29" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AP6" s="28" t="s">
         <v>84</v>
@@ -22842,10 +22675,29 @@
         <v>5</v>
       </c>
       <c r="AT6" s="29" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="AU6" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC6" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22853,7 +22705,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>84</v>
@@ -22863,7 +22715,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>84</v>
@@ -22876,7 +22728,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L7" s="28" t="s">
         <v>84</v>
@@ -22890,7 +22742,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="28" t="s">
         <v>49</v>
@@ -22904,7 +22756,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>49</v>
@@ -22917,7 +22769,7 @@
         <v>6</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="AA7" s="28" t="s">
         <v>102</v>
@@ -22931,7 +22783,7 @@
         <v>6</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="AF7" s="28" t="s">
         <v>102</v>
@@ -22944,7 +22796,7 @@
         <v>6</v>
       </c>
       <c r="AJ7" s="29" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="AK7" s="28" t="s">
         <v>84</v>
@@ -22958,7 +22810,7 @@
         <v>6</v>
       </c>
       <c r="AO7" s="29" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="AP7" s="28" t="s">
         <v>84</v>
@@ -22972,10 +22824,29 @@
         <v>6</v>
       </c>
       <c r="AT7" s="29" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AU7" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC7" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22983,7 +22854,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>97</v>
@@ -22992,7 +22863,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>84</v>
@@ -23005,7 +22876,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="L8" s="28" t="s">
         <v>84</v>
@@ -23019,7 +22890,7 @@
         <v>7</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="28" t="s">
         <v>49</v>
@@ -23033,7 +22904,7 @@
         <v>7</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="V8" s="28" t="s">
         <v>49</v>
@@ -23046,7 +22917,7 @@
         <v>7</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AA8" s="28" t="s">
         <v>102</v>
@@ -23060,7 +22931,7 @@
         <v>7</v>
       </c>
       <c r="AE8" s="29" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AF8" s="28" t="s">
         <v>102</v>
@@ -23073,7 +22944,7 @@
         <v>7</v>
       </c>
       <c r="AJ8" s="29" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AK8" s="28" t="s">
         <v>84</v>
@@ -23087,7 +22958,7 @@
         <v>7</v>
       </c>
       <c r="AO8" s="29" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AP8" s="28" t="s">
         <v>84</v>
@@ -23101,10 +22972,29 @@
         <v>7</v>
       </c>
       <c r="AT8" s="29" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AU8" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="BC8" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23112,7 +23002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>102</v>
@@ -23121,7 +23011,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>84</v>
@@ -23134,7 +23024,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L9" s="28" t="s">
         <v>84</v>
@@ -23148,7 +23038,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="28" t="s">
         <v>49</v>
@@ -23162,7 +23052,7 @@
         <v>8</v>
       </c>
       <c r="U9" s="29" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="V9" s="28" t="s">
         <v>49</v>
@@ -23175,7 +23065,7 @@
         <v>8</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AA9" s="28" t="s">
         <v>102</v>
@@ -23189,7 +23079,7 @@
         <v>8</v>
       </c>
       <c r="AE9" s="29" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AF9" s="28" t="s">
         <v>102</v>
@@ -23202,7 +23092,7 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="29" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AK9" s="28" t="s">
         <v>84</v>
@@ -23216,7 +23106,7 @@
         <v>8</v>
       </c>
       <c r="AO9" s="29" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AP9" s="28" t="s">
         <v>84</v>
@@ -23230,10 +23120,29 @@
         <v>8</v>
       </c>
       <c r="AT9" s="29" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AU9" s="28" t="s">
         <v>79</v>
+      </c>
+      <c r="AW9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB9" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="BC9" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23241,7 +23150,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>69</v>
@@ -23250,7 +23159,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>84</v>
@@ -23263,7 +23172,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="L10" s="28" t="s">
         <v>84</v>
@@ -23277,7 +23186,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="28" t="s">
         <v>49</v>
@@ -23291,7 +23200,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="29" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="V10" s="28" t="s">
         <v>49</v>
@@ -23304,7 +23213,7 @@
         <v>9</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="AA10" s="28" t="s">
         <v>102</v>
@@ -23318,7 +23227,7 @@
         <v>9</v>
       </c>
       <c r="AE10" s="29" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="AF10" s="28" t="s">
         <v>102</v>
@@ -23331,7 +23240,7 @@
         <v>9</v>
       </c>
       <c r="AJ10" s="29" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="AK10" s="28" t="s">
         <v>84</v>
@@ -23345,7 +23254,7 @@
         <v>9</v>
       </c>
       <c r="AO10" s="29" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AP10" s="28" t="s">
         <v>84</v>
@@ -23359,7 +23268,7 @@
         <v>9</v>
       </c>
       <c r="AT10" s="29" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="AU10" s="28" t="s">
         <v>79</v>
@@ -23370,7 +23279,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>69</v>
@@ -23379,7 +23288,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>84</v>
@@ -23392,7 +23301,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="L11" s="28" t="s">
         <v>84</v>
@@ -23406,7 +23315,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="28" t="s">
         <v>49</v>
@@ -23420,7 +23329,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="29" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="V11" s="28" t="s">
         <v>49</v>
@@ -23433,7 +23342,7 @@
         <v>10</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AA11" s="28" t="s">
         <v>102</v>
@@ -23447,7 +23356,7 @@
         <v>10</v>
       </c>
       <c r="AE11" s="29" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="AF11" s="28" t="s">
         <v>102</v>
@@ -23460,7 +23369,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="29" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="AK11" s="28" t="s">
         <v>84</v>
@@ -23474,7 +23383,7 @@
         <v>10</v>
       </c>
       <c r="AO11" s="29" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="AP11" s="28" t="s">
         <v>84</v>
@@ -23488,7 +23397,7 @@
         <v>10</v>
       </c>
       <c r="AT11" s="29" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="AU11" s="28" t="s">
         <v>79</v>
@@ -23499,7 +23408,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>69</v>
@@ -23508,7 +23417,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>84</v>
@@ -23521,7 +23430,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>84</v>
@@ -23535,7 +23444,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="28" t="s">
         <v>49</v>
@@ -23549,7 +23458,7 @@
         <v>11</v>
       </c>
       <c r="U12" s="29" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="V12" s="28" t="s">
         <v>49</v>
@@ -23562,7 +23471,7 @@
         <v>11</v>
       </c>
       <c r="Z12" s="29" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AA12" s="28" t="s">
         <v>102</v>
@@ -23576,7 +23485,7 @@
         <v>11</v>
       </c>
       <c r="AE12" s="29" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AF12" s="28" t="s">
         <v>102</v>
@@ -23589,7 +23498,7 @@
         <v>11</v>
       </c>
       <c r="AJ12" s="29" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="AK12" s="28" t="s">
         <v>84</v>
@@ -23603,7 +23512,7 @@
         <v>11</v>
       </c>
       <c r="AO12" s="29" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AP12" s="28" t="s">
         <v>84</v>
@@ -23617,7 +23526,7 @@
         <v>11</v>
       </c>
       <c r="AT12" s="29" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AU12" s="28" t="s">
         <v>79</v>
@@ -23628,7 +23537,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>69</v>
@@ -23637,7 +23546,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>84</v>
@@ -23650,7 +23559,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L13" s="28" t="s">
         <v>84</v>
@@ -23664,7 +23573,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="28" t="s">
         <v>49</v>
@@ -23678,7 +23587,7 @@
         <v>12</v>
       </c>
       <c r="U13" s="29" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="V13" s="28" t="s">
         <v>49</v>
@@ -23691,7 +23600,7 @@
         <v>12</v>
       </c>
       <c r="Z13" s="29" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AA13" s="28" t="s">
         <v>102</v>
@@ -23705,7 +23614,7 @@
         <v>12</v>
       </c>
       <c r="AE13" s="29" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AF13" s="28" t="s">
         <v>102</v>
@@ -23718,7 +23627,7 @@
         <v>12</v>
       </c>
       <c r="AJ13" s="29" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AK13" s="28" t="s">
         <v>84</v>
@@ -23732,7 +23641,7 @@
         <v>12</v>
       </c>
       <c r="AO13" s="29" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="AP13" s="28" t="s">
         <v>84</v>
@@ -23746,7 +23655,7 @@
         <v>12</v>
       </c>
       <c r="AT13" s="29" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AU13" s="28" t="s">
         <v>79</v>
@@ -23757,7 +23666,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>69</v>
@@ -23766,7 +23675,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>84</v>
@@ -23779,7 +23688,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>84</v>
@@ -23793,7 +23702,7 @@
         <v>13</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="28" t="s">
         <v>49</v>
@@ -23807,7 +23716,7 @@
         <v>13</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="V14" s="28" t="s">
         <v>49</v>
@@ -23820,7 +23729,7 @@
         <v>13</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AA14" s="28" t="s">
         <v>102</v>
@@ -23834,7 +23743,7 @@
         <v>13</v>
       </c>
       <c r="AE14" s="29" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AF14" s="28" t="s">
         <v>102</v>
@@ -23843,50 +23752,24 @@
         <f aca="false">IF(AE14&lt;&gt;CONCATENATE("StMtx",AD14),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK14" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AL14" s="2" t="n">
         <f aca="false">IF(AJ14&lt;&gt;CONCATENATE("Fx",AI14),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO14" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP14" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AQ14" s="2" t="n">
         <f aca="false">IF(AO14&lt;&gt;CONCATENATE("StFx",AN14),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT14" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU14" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AS14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>69</v>
@@ -23895,7 +23778,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>84</v>
@@ -23908,7 +23791,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>84</v>
@@ -23922,7 +23805,7 @@
         <v>14</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="28" t="s">
         <v>49</v>
@@ -23936,7 +23819,7 @@
         <v>14</v>
       </c>
       <c r="U15" s="29" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="V15" s="28" t="s">
         <v>49</v>
@@ -23949,7 +23832,7 @@
         <v>14</v>
       </c>
       <c r="Z15" s="29" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="AA15" s="28" t="s">
         <v>102</v>
@@ -23963,7 +23846,7 @@
         <v>14</v>
       </c>
       <c r="AE15" s="29" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="AF15" s="28" t="s">
         <v>102</v>
@@ -23972,50 +23855,24 @@
         <f aca="false">IF(AE15&lt;&gt;CONCATENATE("StMtx",AD15),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ15" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK15" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AL15" s="2" t="n">
         <f aca="false">IF(AJ15&lt;&gt;CONCATENATE("Fx",AI15),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO15" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP15" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AQ15" s="2" t="n">
         <f aca="false">IF(AO15&lt;&gt;CONCATENATE("StFx",AN15),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT15" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU15" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AS15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>69</v>
@@ -24024,7 +23881,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>84</v>
@@ -24037,7 +23894,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L16" s="28" t="s">
         <v>84</v>
@@ -24051,7 +23908,7 @@
         <v>15</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="28" t="s">
         <v>49</v>
@@ -24065,7 +23922,7 @@
         <v>15</v>
       </c>
       <c r="U16" s="29" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="V16" s="28" t="s">
         <v>49</v>
@@ -24078,7 +23935,7 @@
         <v>15</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="AA16" s="28" t="s">
         <v>102</v>
@@ -24092,7 +23949,7 @@
         <v>15</v>
       </c>
       <c r="AE16" s="29" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AF16" s="28" t="s">
         <v>102</v>
@@ -24101,50 +23958,24 @@
         <f aca="false">IF(AE16&lt;&gt;CONCATENATE("StMtx",AD16),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK16" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AL16" s="2" t="n">
         <f aca="false">IF(AJ16&lt;&gt;CONCATENATE("Fx",AI16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP16" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AQ16" s="2" t="n">
         <f aca="false">IF(AO16&lt;&gt;CONCATENATE("StFx",AN16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT16" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU16" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AS16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>69</v>
@@ -24153,7 +23984,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>84</v>
@@ -24166,7 +23997,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="L17" s="28" t="s">
         <v>84</v>
@@ -24180,7 +24011,7 @@
         <v>16</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="28" t="s">
         <v>49</v>
@@ -24194,7 +24025,7 @@
         <v>16</v>
       </c>
       <c r="U17" s="29" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="V17" s="28" t="s">
         <v>49</v>
@@ -24207,7 +24038,7 @@
         <v>16</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AA17" s="28" t="s">
         <v>102</v>
@@ -24221,7 +24052,7 @@
         <v>16</v>
       </c>
       <c r="AE17" s="29" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AF17" s="28" t="s">
         <v>102</v>
@@ -24230,59 +24061,24 @@
         <f aca="false">IF(AE17&lt;&gt;CONCATENATE("StMtx",AD17),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK17" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AL17" s="2" t="n">
         <f aca="false">IF(AJ17&lt;&gt;CONCATENATE("Fx",AI17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO17" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP17" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="AQ17" s="2" t="n">
         <f aca="false">IF(AO17&lt;&gt;CONCATENATE("StFx",AN17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT17" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU17" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AS17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="26" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>84</v>
@@ -24295,7 +24091,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>84</v>
@@ -24309,7 +24105,7 @@
         <v>17</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>49</v>
@@ -24323,7 +24119,7 @@
         <v>17</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V18" s="28" t="s">
         <v>49</v>
@@ -24336,7 +24132,7 @@
         <v>17</v>
       </c>
       <c r="Z18" s="29" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AA18" s="28" t="s">
         <v>102</v>
@@ -24350,7 +24146,7 @@
         <v>17</v>
       </c>
       <c r="AE18" s="29" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AF18" s="28" t="s">
         <v>102</v>
@@ -24359,22 +24155,14 @@
         <f aca="false">IF(AE18&lt;&gt;CONCATENATE("StMtx",AD18),1,0)</f>
         <v>0</v>
       </c>
+      <c r="AS18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="26" t="n">
         <v>18</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>84</v>
@@ -24387,7 +24175,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>84</v>
@@ -24401,7 +24189,7 @@
         <v>18</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="28" t="s">
         <v>49</v>
@@ -24415,7 +24203,7 @@
         <v>18</v>
       </c>
       <c r="U19" s="29" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="V19" s="28" t="s">
         <v>49</v>
@@ -24428,7 +24216,7 @@
         <v>18</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AA19" s="28" t="s">
         <v>102</v>
@@ -24442,7 +24230,7 @@
         <v>18</v>
       </c>
       <c r="AE19" s="29" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AF19" s="28" t="s">
         <v>102</v>
@@ -24453,20 +24241,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="26" t="n">
         <v>19</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>84</v>
@@ -24479,7 +24258,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>84</v>
@@ -24493,7 +24272,7 @@
         <v>19</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="28" t="s">
         <v>49</v>
@@ -24507,7 +24286,7 @@
         <v>19</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="V20" s="28" t="s">
         <v>49</v>
@@ -24520,7 +24299,7 @@
         <v>19</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AA20" s="28" t="s">
         <v>102</v>
@@ -24534,7 +24313,7 @@
         <v>19</v>
       </c>
       <c r="AE20" s="29" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AF20" s="28" t="s">
         <v>102</v>
@@ -24545,20 +24324,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" s="26" t="n">
         <v>20</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>84</v>
@@ -24571,7 +24341,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>84</v>
@@ -24585,7 +24355,7 @@
         <v>20</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="28" t="s">
         <v>49</v>
@@ -24599,7 +24369,7 @@
         <v>20</v>
       </c>
       <c r="U21" s="29" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="V21" s="28" t="s">
         <v>49</v>
@@ -24612,7 +24382,7 @@
         <v>20</v>
       </c>
       <c r="Z21" s="29" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AA21" s="28" t="s">
         <v>102</v>
@@ -24626,7 +24396,7 @@
         <v>20</v>
       </c>
       <c r="AE21" s="29" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AF21" s="28" t="s">
         <v>102</v>
@@ -24637,20 +24407,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>84</v>
@@ -24659,25 +24420,17 @@
         <f aca="false">IF(F22&lt;&gt;CONCATENATE("Aux",E22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="L22" s="31"/>
       <c r="M22" s="2" t="n">
         <f aca="false">IF(K22&lt;&gt;CONCATENATE("STAux",J22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="28" t="s">
         <v>49</v>
@@ -24687,24 +24440,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="30"/>
-      <c r="T22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="V22" s="28" t="s">
-        <v>49</v>
-      </c>
+      <c r="V22" s="31"/>
       <c r="W22" s="2" t="n">
         <f aca="false">IF(U22&lt;&gt;CONCATENATE("StGrp",T22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="Z22" s="29" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AA22" s="28" t="s">
         <v>102</v>
@@ -24714,35 +24459,17 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF22" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG22" s="2" t="n">
         <f aca="false">IF(AE22&lt;&gt;CONCATENATE("StMtx",AD22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E23" s="26" t="n">
         <v>22</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>84</v>
@@ -24751,18 +24478,9 @@
         <f aca="false">IF(F23&lt;&gt;CONCATENATE("Aux",E23),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M23" s="2" t="n">
         <f aca="false">IF(K23&lt;&gt;CONCATENATE("STAux",J23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="26" t="n">
@@ -24779,24 +24497,15 @@
         <v>0</v>
       </c>
       <c r="S23" s="30"/>
-      <c r="T23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="U23" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W23" s="2" t="n">
         <f aca="false">IF(U23&lt;&gt;CONCATENATE("StGrp",T23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="26" t="n">
         <v>22</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA23" s="28" t="s">
         <v>102</v>
@@ -24806,35 +24515,17 @@
         <v>0</v>
       </c>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE23" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF23" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG23" s="2" t="n">
         <f aca="false">IF(AE23&lt;&gt;CONCATENATE("StMtx",AD23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>84</v>
@@ -24843,25 +24534,16 @@
         <f aca="false">IF(F24&lt;&gt;CONCATENATE("Aux",E24),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M24" s="2" t="n">
         <f aca="false">IF(K24&lt;&gt;CONCATENATE("STAux",J24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="28" t="s">
         <v>49</v>
@@ -24871,24 +24553,15 @@
         <v>0</v>
       </c>
       <c r="S24" s="30"/>
-      <c r="T24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="U24" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="V24" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W24" s="2" t="n">
         <f aca="false">IF(U24&lt;&gt;CONCATENATE("StGrp",T24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="Z24" s="29" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AA24" s="28" t="s">
         <v>102</v>
@@ -24898,35 +24571,17 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE24" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF24" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG24" s="2" t="n">
         <f aca="false">IF(AE24&lt;&gt;CONCATENATE("StMtx",AD24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>84</v>
@@ -24935,25 +24590,16 @@
         <f aca="false">IF(F25&lt;&gt;CONCATENATE("Aux",E25),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M25" s="2" t="n">
         <f aca="false">IF(K25&lt;&gt;CONCATENATE("STAux",J25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="28" t="s">
         <v>49</v>
@@ -24963,24 +24609,15 @@
         <v>0</v>
       </c>
       <c r="S25" s="30"/>
-      <c r="T25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="U25" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="V25" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W25" s="2" t="n">
         <f aca="false">IF(U25&lt;&gt;CONCATENATE("StGrp",T25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="Z25" s="29" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AA25" s="28" t="s">
         <v>102</v>
@@ -24990,18 +24627,9 @@
         <v>0</v>
       </c>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE25" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF25" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG25" s="2" t="n">
         <f aca="false">IF(AE25&lt;&gt;CONCATENATE("StMtx",AD25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25009,7 +24637,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>84</v>
@@ -25018,25 +24646,16 @@
         <f aca="false">IF(F26&lt;&gt;CONCATENATE("Aux",E26),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M26" s="2" t="n">
         <f aca="false">IF(K26&lt;&gt;CONCATENATE("STAux",J26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="26" t="n">
         <v>25</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="28" t="s">
         <v>49</v>
@@ -25046,24 +24665,15 @@
         <v>0</v>
       </c>
       <c r="S26" s="30"/>
-      <c r="T26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="U26" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="V26" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W26" s="2" t="n">
         <f aca="false">IF(U26&lt;&gt;CONCATENATE("StGrp",T26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="26" t="n">
         <v>25</v>
       </c>
       <c r="Z26" s="29" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AA26" s="28" t="s">
         <v>102</v>
@@ -25073,18 +24683,9 @@
         <v>0</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE26" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF26" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG26" s="2" t="n">
         <f aca="false">IF(AE26&lt;&gt;CONCATENATE("StMtx",AD26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25092,7 +24693,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>84</v>
@@ -25101,25 +24702,16 @@
         <f aca="false">IF(F27&lt;&gt;CONCATENATE("Aux",E27),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M27" s="2" t="n">
         <f aca="false">IF(K27&lt;&gt;CONCATENATE("STAux",J27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="28" t="s">
         <v>49</v>
@@ -25129,24 +24721,15 @@
         <v>0</v>
       </c>
       <c r="S27" s="30"/>
-      <c r="T27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="U27" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W27" s="2" t="n">
         <f aca="false">IF(U27&lt;&gt;CONCATENATE("StGrp",T27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AA27" s="28" t="s">
         <v>102</v>
@@ -25156,18 +24739,9 @@
         <v>0</v>
       </c>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE27" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF27" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG27" s="2" t="n">
         <f aca="false">IF(AE27&lt;&gt;CONCATENATE("StMtx",AD27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25175,7 +24749,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>84</v>
@@ -25184,25 +24758,16 @@
         <f aca="false">IF(F28&lt;&gt;CONCATENATE("Aux",E28),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M28" s="2" t="n">
         <f aca="false">IF(K28&lt;&gt;CONCATENATE("STAux",J28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="26" t="n">
         <v>27</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="28" t="s">
         <v>49</v>
@@ -25212,24 +24777,15 @@
         <v>0</v>
       </c>
       <c r="S28" s="30"/>
-      <c r="T28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="U28" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="V28" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W28" s="2" t="n">
         <f aca="false">IF(U28&lt;&gt;CONCATENATE("StGrp",T28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="26" t="n">
         <v>27</v>
       </c>
       <c r="Z28" s="29" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AA28" s="28" t="s">
         <v>102</v>
@@ -25239,18 +24795,9 @@
         <v>0</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE28" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="AF28" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG28" s="2" t="n">
         <f aca="false">IF(AE28&lt;&gt;CONCATENATE("StMtx",AD28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25258,7 +24805,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>84</v>
@@ -25267,25 +24814,16 @@
         <f aca="false">IF(F29&lt;&gt;CONCATENATE("Aux",E29),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M29" s="2" t="n">
         <f aca="false">IF(K29&lt;&gt;CONCATENATE("STAux",J29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="28" t="s">
         <v>49</v>
@@ -25295,24 +24833,15 @@
         <v>0</v>
       </c>
       <c r="S29" s="30"/>
-      <c r="T29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="U29" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="V29" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W29" s="2" t="n">
         <f aca="false">IF(U29&lt;&gt;CONCATENATE("StGrp",T29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="Z29" s="29" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="AA29" s="28" t="s">
         <v>102</v>
@@ -25322,18 +24851,9 @@
         <v>0</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE29" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF29" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG29" s="2" t="n">
         <f aca="false">IF(AE29&lt;&gt;CONCATENATE("StMtx",AD29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25341,7 +24861,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>84</v>
@@ -25350,25 +24870,16 @@
         <f aca="false">IF(F30&lt;&gt;CONCATENATE("Aux",E30),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M30" s="2" t="n">
         <f aca="false">IF(K30&lt;&gt;CONCATENATE("STAux",J30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="26" t="n">
         <v>29</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="28" t="s">
         <v>49</v>
@@ -25378,24 +24889,15 @@
         <v>0</v>
       </c>
       <c r="S30" s="30"/>
-      <c r="T30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="U30" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="V30" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W30" s="2" t="n">
         <f aca="false">IF(U30&lt;&gt;CONCATENATE("StGrp",T30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="26" t="n">
         <v>29</v>
       </c>
       <c r="Z30" s="29" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AA30" s="28" t="s">
         <v>102</v>
@@ -25405,18 +24907,9 @@
         <v>0</v>
       </c>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE30" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF30" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG30" s="2" t="n">
         <f aca="false">IF(AE30&lt;&gt;CONCATENATE("StMtx",AD30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25424,7 +24917,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>84</v>
@@ -25433,25 +24926,17 @@
         <f aca="false">IF(F31&lt;&gt;CONCATENATE("Aux",E31),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="L31" s="31"/>
       <c r="M31" s="2" t="n">
         <f aca="false">IF(K31&lt;&gt;CONCATENATE("STAux",J31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="26" t="n">
         <v>30</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="28" t="s">
         <v>49</v>
@@ -25461,24 +24946,15 @@
         <v>0</v>
       </c>
       <c r="S31" s="30"/>
-      <c r="T31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="U31" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="V31" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W31" s="2" t="n">
         <f aca="false">IF(U31&lt;&gt;CONCATENATE("StGrp",T31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="26" t="n">
         <v>30</v>
       </c>
       <c r="Z31" s="29" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="AA31" s="28" t="s">
         <v>102</v>
@@ -25488,18 +24964,9 @@
         <v>0</v>
       </c>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE31" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF31" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG31" s="2" t="n">
         <f aca="false">IF(AE31&lt;&gt;CONCATENATE("StMtx",AD31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25507,7 +24974,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>84</v>
@@ -25516,25 +24983,16 @@
         <f aca="false">IF(F32&lt;&gt;CONCATENATE("Aux",E32),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="M32" s="2" t="n">
         <f aca="false">IF(K32&lt;&gt;CONCATENATE("STAux",J32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="26" t="n">
         <v>31</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="Q32" s="28" t="s">
         <v>49</v>
@@ -25544,24 +25002,15 @@
         <v>0</v>
       </c>
       <c r="S32" s="30"/>
-      <c r="T32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="U32" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="V32" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="W32" s="2" t="n">
         <f aca="false">IF(U32&lt;&gt;CONCATENATE("StGrp",T32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="26" t="n">
         <v>31</v>
       </c>
       <c r="Z32" s="29" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="AA32" s="28" t="s">
         <v>102</v>
@@ -25571,18 +25020,9 @@
         <v>0</v>
       </c>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE32" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF32" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AG32" s="2" t="n">
         <f aca="false">IF(AE32&lt;&gt;CONCATENATE("StMtx",AD32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25590,7 +25030,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>84</v>
@@ -25599,12 +25039,11 @@
         <f aca="false">IF(F33&lt;&gt;CONCATENATE("Aux",E33),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="31"/>
       <c r="O33" s="26" t="n">
         <v>32</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="Q33" s="28" t="s">
         <v>49</v>
@@ -25614,12 +25053,11 @@
         <v>0</v>
       </c>
       <c r="S33" s="30"/>
-      <c r="V33" s="31"/>
       <c r="Y33" s="26" t="n">
         <v>32</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="AA33" s="28" t="s">
         <v>102</v>
@@ -25636,7 +25074,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>84</v>
@@ -25649,7 +25087,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="28" t="s">
         <v>49</v>
@@ -25663,7 +25101,7 @@
         <v>33</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="AA34" s="28" t="s">
         <v>102</v>
@@ -25680,7 +25118,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>84</v>
@@ -25693,7 +25131,7 @@
         <v>34</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="Q35" s="28" t="s">
         <v>49</v>
@@ -25707,7 +25145,7 @@
         <v>34</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="AA35" s="28" t="s">
         <v>102</v>
@@ -25724,7 +25162,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>84</v>
@@ -25737,7 +25175,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="Q36" s="28" t="s">
         <v>49</v>
@@ -25751,7 +25189,7 @@
         <v>35</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="AA36" s="28" t="s">
         <v>102</v>
@@ -25767,7 +25205,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>84</v>
@@ -25780,7 +25218,7 @@
         <v>36</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="Q37" s="28" t="s">
         <v>49</v>
@@ -25794,7 +25232,7 @@
         <v>36</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="AA37" s="28" t="s">
         <v>102</v>
@@ -25810,7 +25248,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>84</v>
@@ -25823,7 +25261,7 @@
         <v>37</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>49</v>
@@ -25837,7 +25275,7 @@
         <v>37</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="AA38" s="28" t="s">
         <v>102</v>
@@ -25853,7 +25291,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>84</v>
@@ -25866,7 +25304,7 @@
         <v>38</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>49</v>
@@ -25880,7 +25318,7 @@
         <v>38</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="AA39" s="28" t="s">
         <v>102</v>
@@ -25896,7 +25334,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>84</v>
@@ -25909,7 +25347,7 @@
         <v>39</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="Q40" s="28" t="s">
         <v>49</v>
@@ -25923,7 +25361,7 @@
         <v>39</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="AA40" s="28" t="s">
         <v>102</v>
@@ -25939,7 +25377,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>84</v>
@@ -25952,7 +25390,7 @@
         <v>40</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="Q41" s="28" t="s">
         <v>49</v>
@@ -25966,7 +25404,7 @@
         <v>40</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="AA41" s="28" t="s">
         <v>102</v>
@@ -25978,1001 +25416,425 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="2" t="n">
         <f aca="false">IF(F42&lt;&gt;CONCATENATE("Aux",E42),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="P42" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q42" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R42" s="30" t="n">
         <f aca="false">IF(P42&lt;&gt;CONCATENATE("Grp",O42),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="30"/>
-      <c r="Y42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z42" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA42" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="AA42" s="31"/>
       <c r="AB42" s="2" t="n">
         <f aca="false">IF(Z42&lt;&gt;CONCATENATE("Mtx",Y42),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="2" t="n">
         <f aca="false">IF(F43&lt;&gt;CONCATENATE("Aux",E43),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="P43" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q43" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R43" s="30" t="n">
         <f aca="false">IF(P43&lt;&gt;CONCATENATE("Grp",O43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="30"/>
-      <c r="Y43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA43" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB43" s="2" t="n">
         <f aca="false">IF(Z43&lt;&gt;CONCATENATE("Mtx",Y43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="2" t="n">
         <f aca="false">IF(F44&lt;&gt;CONCATENATE("Aux",E44),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="P44" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q44" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R44" s="30" t="n">
         <f aca="false">IF(P44&lt;&gt;CONCATENATE("Grp",O44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="30"/>
-      <c r="Y44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z44" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA44" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB44" s="2" t="n">
         <f aca="false">IF(Z44&lt;&gt;CONCATENATE("Mtx",Y44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="2" t="n">
         <f aca="false">IF(F45&lt;&gt;CONCATENATE("Aux",E45),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="P45" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q45" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R45" s="30" t="n">
         <f aca="false">IF(P45&lt;&gt;CONCATENATE("Grp",O45),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="30"/>
-      <c r="Y45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z45" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA45" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB45" s="2" t="n">
         <f aca="false">IF(Z45&lt;&gt;CONCATENATE("Mtx",Y45),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="2" t="n">
         <f aca="false">IF(F46&lt;&gt;CONCATENATE("Aux",E46),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="P46" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R46" s="30" t="n">
         <f aca="false">IF(P46&lt;&gt;CONCATENATE("Grp",O46),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="30"/>
-      <c r="Y46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z46" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA46" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB46" s="2" t="n">
         <f aca="false">IF(Z46&lt;&gt;CONCATENATE("Mtx",Y46),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="2" t="n">
         <f aca="false">IF(F47&lt;&gt;CONCATENATE("Aux",E47),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="P47" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q47" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R47" s="30" t="n">
         <f aca="false">IF(P47&lt;&gt;CONCATENATE("Grp",O47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="30"/>
-      <c r="Y47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z47" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA47" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB47" s="2" t="n">
         <f aca="false">IF(Z47&lt;&gt;CONCATENATE("Mtx",Y47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="2" t="n">
         <f aca="false">IF(F48&lt;&gt;CONCATENATE("Aux",E48),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q48" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R48" s="30" t="n">
         <f aca="false">IF(P48&lt;&gt;CONCATENATE("Grp",O48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="30"/>
-      <c r="Y48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA48" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB48" s="2" t="n">
         <f aca="false">IF(Z48&lt;&gt;CONCATENATE("Mtx",Y48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="2" t="n">
         <f aca="false">IF(F49&lt;&gt;CONCATENATE("Aux",E49),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="P49" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q49" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R49" s="30" t="n">
         <f aca="false">IF(P49&lt;&gt;CONCATENATE("Grp",O49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="30"/>
-      <c r="Y49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z49" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA49" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB49" s="2" t="n">
         <f aca="false">IF(Z49&lt;&gt;CONCATENATE("Mtx",Y49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="2" t="n">
         <f aca="false">IF(F50&lt;&gt;CONCATENATE("Aux",E50),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="P50" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q50" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R50" s="30" t="n">
         <f aca="false">IF(P50&lt;&gt;CONCATENATE("Grp",O50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="30"/>
-      <c r="Y50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z50" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA50" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB50" s="2" t="n">
         <f aca="false">IF(Z50&lt;&gt;CONCATENATE("Mtx",Y50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G51" s="3"/>
       <c r="H51" s="2" t="n">
         <f aca="false">IF(F51&lt;&gt;CONCATENATE("Aux",E51),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="P51" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q51" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R51" s="30" t="n">
         <f aca="false">IF(P51&lt;&gt;CONCATENATE("Grp",O51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="30"/>
-      <c r="Y51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z51" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA51" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB51" s="2" t="n">
         <f aca="false">IF(Z51&lt;&gt;CONCATENATE("Mtx",Y51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G52" s="3"/>
       <c r="H52" s="2" t="n">
         <f aca="false">IF(F52&lt;&gt;CONCATENATE("Aux",E52),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="P52" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q52" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R52" s="30" t="n">
         <f aca="false">IF(P52&lt;&gt;CONCATENATE("Grp",O52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="30"/>
-      <c r="Y52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z52" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA52" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB52" s="2" t="n">
         <f aca="false">IF(Z52&lt;&gt;CONCATENATE("Mtx",Y52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="2" t="n">
         <f aca="false">IF(F53&lt;&gt;CONCATENATE("Aux",E53),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="P53" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q53" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R53" s="30" t="n">
         <f aca="false">IF(P53&lt;&gt;CONCATENATE("Grp",O53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="30"/>
-      <c r="Y53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z53" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA53" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB53" s="2" t="n">
         <f aca="false">IF(Z53&lt;&gt;CONCATENATE("Mtx",Y53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G54" s="3"/>
       <c r="H54" s="2" t="n">
         <f aca="false">IF(F54&lt;&gt;CONCATENATE("Aux",E54),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="P54" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q54" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R54" s="30" t="n">
         <f aca="false">IF(P54&lt;&gt;CONCATENATE("Grp",O54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="30"/>
-      <c r="Y54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z54" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA54" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="AA54" s="31"/>
       <c r="AB54" s="2" t="n">
         <f aca="false">IF(Z54&lt;&gt;CONCATENATE("Mtx",Y54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="H55" s="2" t="n">
         <f aca="false">IF(F55&lt;&gt;CONCATENATE("Aux",E55),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="P55" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q55" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R55" s="30" t="n">
         <f aca="false">IF(P55&lt;&gt;CONCATENATE("Grp",O55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="30"/>
-      <c r="Y55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z55" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA55" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB55" s="2" t="n">
         <f aca="false">IF(Z55&lt;&gt;CONCATENATE("Mtx",Y55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="2" t="n">
         <f aca="false">IF(F56&lt;&gt;CONCATENATE("Aux",E56),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="P56" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q56" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R56" s="30" t="n">
         <f aca="false">IF(P56&lt;&gt;CONCATENATE("Grp",O56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="30"/>
-      <c r="Y56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z56" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA56" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB56" s="2" t="n">
         <f aca="false">IF(Z56&lt;&gt;CONCATENATE("Mtx",Y56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="2" t="n">
         <f aca="false">IF(F57&lt;&gt;CONCATENATE("Aux",E57),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="P57" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q57" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R57" s="30" t="n">
         <f aca="false">IF(P57&lt;&gt;CONCATENATE("Grp",O57),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="30"/>
-      <c r="Y57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z57" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA57" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB57" s="2" t="n">
         <f aca="false">IF(Z57&lt;&gt;CONCATENATE("Mtx",Y57),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="2" t="n">
         <f aca="false">IF(F58&lt;&gt;CONCATENATE("Aux",E58),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="P58" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q58" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R58" s="30" t="n">
         <f aca="false">IF(P58&lt;&gt;CONCATENATE("Grp",O58),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="30"/>
-      <c r="Y58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA58" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB58" s="2" t="n">
         <f aca="false">IF(Z58&lt;&gt;CONCATENATE("Mtx",Y58),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="2" t="n">
         <f aca="false">IF(F59&lt;&gt;CONCATENATE("Aux",E59),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="P59" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q59" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R59" s="30" t="n">
         <f aca="false">IF(P59&lt;&gt;CONCATENATE("Grp",O59),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="30"/>
-      <c r="Y59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA59" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB59" s="2" t="n">
         <f aca="false">IF(Z59&lt;&gt;CONCATENATE("Mtx",Y59),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="2" t="n">
         <f aca="false">IF(F60&lt;&gt;CONCATENATE("Aux",E60),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="P60" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q60" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R60" s="30" t="n">
         <f aca="false">IF(P60&lt;&gt;CONCATENATE("Grp",O60),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="30"/>
-      <c r="Y60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z60" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA60" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB60" s="2" t="n">
         <f aca="false">IF(Z60&lt;&gt;CONCATENATE("Mtx",Y60),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="2" t="n">
         <f aca="false">IF(F61&lt;&gt;CONCATENATE("Aux",E61),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="P61" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q61" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R61" s="30" t="n">
         <f aca="false">IF(P61&lt;&gt;CONCATENATE("Grp",O61),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="30"/>
-      <c r="Y61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z61" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA61" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB61" s="2" t="n">
         <f aca="false">IF(Z61&lt;&gt;CONCATENATE("Mtx",Y61),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G62" s="3"/>
       <c r="H62" s="2" t="n">
         <f aca="false">IF(F62&lt;&gt;CONCATENATE("Aux",E62),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="P62" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q62" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R62" s="30" t="n">
         <f aca="false">IF(P62&lt;&gt;CONCATENATE("Grp",O62),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="30"/>
-      <c r="Y62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z62" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA62" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB62" s="2" t="n">
         <f aca="false">IF(Z62&lt;&gt;CONCATENATE("Mtx",Y62),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G63" s="3"/>
       <c r="H63" s="2" t="n">
         <f aca="false">IF(F63&lt;&gt;CONCATENATE("Aux",E63),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="P63" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q63" s="28" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R63" s="30" t="n">
         <f aca="false">IF(P63&lt;&gt;CONCATENATE("Grp",O63),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="30"/>
-      <c r="Y63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z63" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="AA63" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AB63" s="2" t="n">
         <f aca="false">IF(Z63&lt;&gt;CONCATENATE("Mtx",Y63),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="32"/>
-      <c r="G64" s="31"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="31"/>
-      <c r="AA64" s="31"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G65" s="31"/>
       <c r="H65" s="2" t="n">
         <f aca="false">COUNTIF(H2:H63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M65" s="2" t="n">
         <f aca="false">COUNTIF(M2:M63,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="Q65" s="31"/>
       <c r="R65" s="2" t="n">
         <f aca="false">COUNTIF(R2:R63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W65" s="2" t="n">
         <f aca="false">COUNTIF(W2:W63,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="31"/>
+        <v>11</v>
+      </c>
       <c r="AB65" s="2" t="n">
         <f aca="false">COUNTIF(AB2:AB63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AG65" s="2" t="n">
         <f aca="false">COUNTIF(AG2:AG63,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL65" s="2" t="n">
         <f aca="false">COUNTIF(AL2:AL63,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM65" s="2"/>
       <c r="AQ65" s="2" t="n">
         <f aca="false">COUNTIF(AQ2:AQ63,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR65" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V4:V33 G2:G65 L2:L33 Q2:Q65 AA2:AA65 AF2:AF33">
+  <conditionalFormatting sqref="V4:V22 G65 AF33 AY3:AY9 BC3:BC9 G2:G41 L2:L22 L31 Q2:Q41 AA2:AA42 AA54 AF2:AF22">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"purple"</formula>
     </cfRule>
@@ -27018,7 +25880,7 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25 G2:G63 L2:L32 Q2:Q63 V2:V32 AA2:AA63 AF2:AF32 AK2:AK17 AP2:AP17 AU2:AU17">
+  <conditionalFormatting sqref="G2:G41 V2:V21 AF2:AF21 AK2:AK13 AP2:AP13 AU2:AU13 AY2:AY9 BC2:BC9 C2:C17 L2:L21 Q2:Q41 AA2:AA41">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
@@ -27041,13 +25903,17 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C18 G2:G26 L2:L32 Q2:Q63 V2:V32 AA2:AA63 AF2:AF32 AK2:AK17 AP2:AP17 AU2:AU17 C19:C25 G27:G63" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C14 G2:G18 L2:L21 Q2:Q41 V2:V21 AA2:AA41 AF2:AF21 AK2:AK13 AP2:AP13 AU2:AU13 C15:C17 G19:G41" type="list">
       <formula1>"-,blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L33 V33 AF33 AJ34 G64:G65 Q64:Q65 AA64:AA65" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L22 V22 AF22 L31 AF33 AJ34 AA42 AA54 G65" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AY9 BC2:BC9" type="list">
+      <formula1>"-,blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -27077,67 +25943,67 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33"/>
       <c r="B1" s="34" t="s">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>510</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">Groups!R65</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" s="36" t="n">
         <f aca="false">Groups!W65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B3" s="36" t="n">
         <f aca="false">Groups!AL65</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="36" t="n">
         <f aca="false">Groups!AQ65</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="B4" s="36" t="n">
         <f aca="false">Groups!H65</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4" s="36" t="n">
         <f aca="false">Groups!M65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>513</v>
+        <v>416</v>
       </c>
       <c r="B5" s="36" t="n">
         <f aca="false">Groups!AB65</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" s="36" t="n">
         <f aca="false">Groups!AG65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -27179,24 +26045,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>518</v>
+        <v>421</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>519</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/AvantisChannelList.xlsx
+++ b/AvantisChannelList.xlsx
@@ -1917,9 +1917,9 @@
   <dimension ref="A1:CF131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>

--- a/AvantisChannelList.xlsx
+++ b/AvantisChannelList.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="424">
   <si>
-    <t xml:space="preserve">Process?</t>
+    <t xml:space="preserve">Enabled</t>
   </si>
   <si>
     <t xml:space="preserve">Channel</t>
@@ -26271,7 +26271,7 @@
         <v>422</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>423</v>
